--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H2">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.236856149128538</v>
+        <v>0.2521135</v>
       </c>
       <c r="N2">
-        <v>0.236856149128538</v>
+        <v>0.504227</v>
       </c>
       <c r="O2">
-        <v>0.06046388451572451</v>
+        <v>0.05590272485875765</v>
       </c>
       <c r="P2">
-        <v>0.06046388451572451</v>
+        <v>0.0405525532384611</v>
       </c>
       <c r="Q2">
-        <v>0.3930167904724046</v>
+        <v>0.0469089941505</v>
       </c>
       <c r="R2">
-        <v>0.3930167904724046</v>
+        <v>0.281453964903</v>
       </c>
       <c r="S2">
-        <v>0.06046388451572451</v>
+        <v>0.005138527883254368</v>
       </c>
       <c r="T2">
-        <v>0.06046388451572451</v>
+        <v>0.005321429729312066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H3">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.432514294657379</v>
+        <v>0.5416043333333334</v>
       </c>
       <c r="N3">
-        <v>0.432514294657379</v>
+        <v>1.624813</v>
       </c>
       <c r="O3">
-        <v>0.1104108736876061</v>
+        <v>0.1200933628252521</v>
       </c>
       <c r="P3">
-        <v>0.1104108736876061</v>
+        <v>0.1306758973340255</v>
       </c>
       <c r="Q3">
-        <v>0.7176734931522958</v>
+        <v>0.100772527073</v>
       </c>
       <c r="R3">
-        <v>0.7176734931522958</v>
+        <v>0.9069527436570001</v>
       </c>
       <c r="S3">
-        <v>0.1104108736876061</v>
+        <v>0.01103887323973023</v>
       </c>
       <c r="T3">
-        <v>0.1104108736876061</v>
+        <v>0.01714768983567466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H4">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7467760077987809</v>
+        <v>1.132338333333333</v>
       </c>
       <c r="N4">
-        <v>0.7467760077987809</v>
+        <v>3.397015</v>
       </c>
       <c r="O4">
-        <v>0.1906346044246269</v>
+        <v>0.2510805581428902</v>
       </c>
       <c r="P4">
-        <v>0.1906346044246269</v>
+        <v>0.2732055832776724</v>
       </c>
       <c r="Q4">
-        <v>1.239129787707546</v>
+        <v>0.210686267315</v>
       </c>
       <c r="R4">
-        <v>1.239129787707546</v>
+        <v>1.896176405835</v>
       </c>
       <c r="S4">
-        <v>0.1906346044246269</v>
+        <v>0.02307909770445102</v>
       </c>
       <c r="T4">
-        <v>0.1906346044246269</v>
+        <v>0.03585086996911912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H5">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3780195074362</v>
+        <v>1.434601</v>
       </c>
       <c r="N5">
-        <v>1.3780195074362</v>
+        <v>4.303803</v>
       </c>
       <c r="O5">
-        <v>0.3517764375744424</v>
+        <v>0.318103175693085</v>
       </c>
       <c r="P5">
-        <v>0.3517764375744424</v>
+        <v>0.3461341821944255</v>
       </c>
       <c r="Q5">
-        <v>2.286555810408915</v>
+        <v>0.266926165863</v>
       </c>
       <c r="R5">
-        <v>2.286555810408915</v>
+        <v>2.402335492767</v>
       </c>
       <c r="S5">
-        <v>0.3517764375744424</v>
+        <v>0.02923975606163335</v>
       </c>
       <c r="T5">
-        <v>0.3517764375744424</v>
+        <v>0.0454207831657219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H6">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.291358241181859</v>
+        <v>0.30565</v>
       </c>
       <c r="N6">
-        <v>0.291358241181859</v>
+        <v>0.9169499999999999</v>
       </c>
       <c r="O6">
-        <v>0.07437700525125172</v>
+        <v>0.06777371244728772</v>
       </c>
       <c r="P6">
-        <v>0.07437700525125172</v>
+        <v>0.07374587971688724</v>
       </c>
       <c r="Q6">
-        <v>0.483452429874797</v>
+        <v>0.05687015595</v>
       </c>
       <c r="R6">
-        <v>0.483452429874797</v>
+        <v>0.51183140355</v>
       </c>
       <c r="S6">
-        <v>0.07437700525125172</v>
+        <v>0.006229698320465573</v>
       </c>
       <c r="T6">
-        <v>0.07437700525125172</v>
+        <v>0.00967715927606554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.186063</v>
+      </c>
+      <c r="H7">
+        <v>0.558189</v>
+      </c>
+      <c r="I7">
+        <v>0.09191909511096708</v>
+      </c>
+      <c r="J7">
+        <v>0.1312230501990953</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8435535000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.687107</v>
+      </c>
+      <c r="O7">
+        <v>0.1870464660327274</v>
+      </c>
+      <c r="P7">
+        <v>0.1356859042385283</v>
+      </c>
+      <c r="Q7">
+        <v>0.1569540948705</v>
+      </c>
+      <c r="R7">
+        <v>0.9417245692230002</v>
+      </c>
+      <c r="S7">
+        <v>0.01719314190143255</v>
+      </c>
+      <c r="T7">
+        <v>0.01780511822320203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.019271</v>
+      </c>
+      <c r="H8">
+        <v>0.057813</v>
+      </c>
+      <c r="I8">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J8">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2521135</v>
+      </c>
+      <c r="N8">
+        <v>0.504227</v>
+      </c>
+      <c r="O8">
+        <v>0.05590272485875765</v>
+      </c>
+      <c r="P8">
+        <v>0.0405525532384611</v>
+      </c>
+      <c r="Q8">
+        <v>0.0048584792585</v>
+      </c>
+      <c r="R8">
+        <v>0.029150875551</v>
+      </c>
+      <c r="S8">
+        <v>0.0005322099011528079</v>
+      </c>
+      <c r="T8">
+        <v>0.0005511534927071627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.019271</v>
+      </c>
+      <c r="H9">
+        <v>0.057813</v>
+      </c>
+      <c r="I9">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J9">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5416043333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.624813</v>
+      </c>
+      <c r="O9">
+        <v>0.1200933628252521</v>
+      </c>
+      <c r="P9">
+        <v>0.1306758973340255</v>
+      </c>
+      <c r="Q9">
+        <v>0.01043725710766667</v>
+      </c>
+      <c r="R9">
+        <v>0.09393531396900001</v>
+      </c>
+      <c r="S9">
+        <v>0.001143323101330416</v>
+      </c>
+      <c r="T9">
+        <v>0.001776028177677917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.019271</v>
+      </c>
+      <c r="H10">
+        <v>0.057813</v>
+      </c>
+      <c r="I10">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J10">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.132338333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.397015</v>
+      </c>
+      <c r="O10">
+        <v>0.2510805581428902</v>
+      </c>
+      <c r="P10">
+        <v>0.2732055832776724</v>
+      </c>
+      <c r="Q10">
+        <v>0.02182129202166666</v>
+      </c>
+      <c r="R10">
+        <v>0.196391628195</v>
+      </c>
+      <c r="S10">
+        <v>0.002390358598230038</v>
+      </c>
+      <c r="T10">
+        <v>0.003713162290057102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.019271</v>
+      </c>
+      <c r="H11">
+        <v>0.057813</v>
+      </c>
+      <c r="I11">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J11">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.434601</v>
+      </c>
+      <c r="N11">
+        <v>4.303803</v>
+      </c>
+      <c r="O11">
+        <v>0.318103175693085</v>
+      </c>
+      <c r="P11">
+        <v>0.3461341821944255</v>
+      </c>
+      <c r="Q11">
+        <v>0.027646195871</v>
+      </c>
+      <c r="R11">
+        <v>0.248815762839</v>
+      </c>
+      <c r="S11">
+        <v>0.003028433052588297</v>
+      </c>
+      <c r="T11">
+        <v>0.004704341606803216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.019271</v>
+      </c>
+      <c r="H12">
+        <v>0.057813</v>
+      </c>
+      <c r="I12">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J12">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.30565</v>
+      </c>
+      <c r="N12">
+        <v>0.9169499999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.06777371244728772</v>
+      </c>
+      <c r="P12">
+        <v>0.07374587971688724</v>
+      </c>
+      <c r="Q12">
+        <v>0.00589018115</v>
+      </c>
+      <c r="R12">
+        <v>0.05301163035</v>
+      </c>
+      <c r="S12">
+        <v>0.0006452250922197967</v>
+      </c>
+      <c r="T12">
+        <v>0.001002287055508398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.019271</v>
+      </c>
+      <c r="H13">
+        <v>0.057813</v>
+      </c>
+      <c r="I13">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J13">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8435535000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.687107</v>
+      </c>
+      <c r="O13">
+        <v>0.1870464660327274</v>
+      </c>
+      <c r="P13">
+        <v>0.1356859042385283</v>
+      </c>
+      <c r="Q13">
+        <v>0.0162561194985</v>
+      </c>
+      <c r="R13">
+        <v>0.09753671699100001</v>
+      </c>
+      <c r="S13">
+        <v>0.001780735759299305</v>
+      </c>
+      <c r="T13">
+        <v>0.00184411964377295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.81887</v>
+      </c>
+      <c r="H14">
+        <v>3.63774</v>
+      </c>
+      <c r="I14">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J14">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2521135</v>
+      </c>
+      <c r="N14">
+        <v>0.504227</v>
+      </c>
+      <c r="O14">
+        <v>0.05590272485875765</v>
+      </c>
+      <c r="P14">
+        <v>0.0405525532384611</v>
+      </c>
+      <c r="Q14">
+        <v>0.458561681745</v>
+      </c>
+      <c r="R14">
+        <v>1.83424672698</v>
+      </c>
+      <c r="S14">
+        <v>0.05023198707435047</v>
+      </c>
+      <c r="T14">
+        <v>0.03467997001644187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.65930583570841</v>
-      </c>
-      <c r="H7">
-        <v>1.65930583570841</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.831791913798157</v>
-      </c>
-      <c r="N7">
-        <v>0.831791913798157</v>
-      </c>
-      <c r="O7">
-        <v>0.2123371945463483</v>
-      </c>
-      <c r="P7">
-        <v>0.2123371945463483</v>
-      </c>
-      <c r="Q7">
-        <v>1.380197176660349</v>
-      </c>
-      <c r="R7">
-        <v>1.380197176660349</v>
-      </c>
-      <c r="S7">
-        <v>0.2123371945463483</v>
-      </c>
-      <c r="T7">
-        <v>0.2123371945463483</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.81887</v>
+      </c>
+      <c r="H15">
+        <v>3.63774</v>
+      </c>
+      <c r="I15">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J15">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5416043333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.624813</v>
+      </c>
+      <c r="O15">
+        <v>0.1200933628252521</v>
+      </c>
+      <c r="P15">
+        <v>0.1306758973340255</v>
+      </c>
+      <c r="Q15">
+        <v>0.98510787377</v>
+      </c>
+      <c r="R15">
+        <v>5.910647242620001</v>
+      </c>
+      <c r="S15">
+        <v>0.1079111664841915</v>
+      </c>
+      <c r="T15">
+        <v>0.111752179320673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.81887</v>
+      </c>
+      <c r="H16">
+        <v>3.63774</v>
+      </c>
+      <c r="I16">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J16">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.132338333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.397015</v>
+      </c>
+      <c r="O16">
+        <v>0.2510805581428902</v>
+      </c>
+      <c r="P16">
+        <v>0.2732055832776724</v>
+      </c>
+      <c r="Q16">
+        <v>2.05957622435</v>
+      </c>
+      <c r="R16">
+        <v>12.3574573461</v>
+      </c>
+      <c r="S16">
+        <v>0.2256111018402091</v>
+      </c>
+      <c r="T16">
+        <v>0.2336415510184962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.81887</v>
+      </c>
+      <c r="H17">
+        <v>3.63774</v>
+      </c>
+      <c r="I17">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J17">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.434601</v>
+      </c>
+      <c r="N17">
+        <v>4.303803</v>
+      </c>
+      <c r="O17">
+        <v>0.318103175693085</v>
+      </c>
+      <c r="P17">
+        <v>0.3461341821944255</v>
+      </c>
+      <c r="Q17">
+        <v>2.60935272087</v>
+      </c>
+      <c r="R17">
+        <v>15.65611632522</v>
+      </c>
+      <c r="S17">
+        <v>0.2858349865788633</v>
+      </c>
+      <c r="T17">
+        <v>0.2960090574219004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.81887</v>
+      </c>
+      <c r="H18">
+        <v>3.63774</v>
+      </c>
+      <c r="I18">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J18">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.30565</v>
+      </c>
+      <c r="N18">
+        <v>0.9169499999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06777371244728772</v>
+      </c>
+      <c r="P18">
+        <v>0.07374587971688724</v>
+      </c>
+      <c r="Q18">
+        <v>0.5559376155</v>
+      </c>
+      <c r="R18">
+        <v>3.335625693</v>
+      </c>
+      <c r="S18">
+        <v>0.06089878903460234</v>
+      </c>
+      <c r="T18">
+        <v>0.0630664333853133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.81887</v>
+      </c>
+      <c r="H19">
+        <v>3.63774</v>
+      </c>
+      <c r="I19">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J19">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8435535000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.687107</v>
+      </c>
+      <c r="O19">
+        <v>0.1870464660327274</v>
+      </c>
+      <c r="P19">
+        <v>0.1356859042385283</v>
+      </c>
+      <c r="Q19">
+        <v>1.534314154545</v>
+      </c>
+      <c r="R19">
+        <v>6.13725661818</v>
+      </c>
+      <c r="S19">
+        <v>0.1680725883719956</v>
+      </c>
+      <c r="T19">
+        <v>0.1160366663715533</v>
       </c>
     </row>
   </sheetData>
